--- a/MÁXIMO e MÍNIMO.xlsx
+++ b/MÁXIMO e MÍNIMO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71338739409\Desktop\Excel Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB10F0B5-C0F2-4991-AA66-6BED3F4B9718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4743AB1B-145F-4670-915A-88B2699ED41C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A25D12B7-63FB-4E1A-B42B-5A9BDE30A2C1}"/>
   </bookViews>
@@ -233,7 +233,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1332,7 +1334,7 @@
   <dimension ref="B2:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,20 +1354,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="M2" s="11" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="M2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1386,8 +1388,8 @@
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1576,23 +1578,23 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N11" s="6"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f>MAX(N4:N10)</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>MIN(N4:N10)</f>
         <v>0.83799999999999997</v>
       </c>
@@ -1601,13 +1603,13 @@
       <c r="M14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="7">
-        <f>AVERAGE(N12:N13)</f>
-        <v>0.88650000000000007</v>
+      <c r="N14" s="6">
+        <f>AVERAGE(N4:N10)</f>
+        <v>0.88214285714285701</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
